--- a/medicine/Mort/Destination_finale_2/Destination_finale_2.xlsx
+++ b/medicine/Mort/Destination_finale_2/Destination_finale_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Destination finale 2 ou Destination ultime 2 au Québec (Final Destination 2) est un film d'horreur américano-canadien réalisé par David Richard Ellis, sorti en 2003. Le film est le second opus de la saga Destination finale après Destination finale de James Wong, sorti en 2000 et avant Destination finale 3 de James Wong en 2006, Destination finale 4 de David Richard Ellis en 2009 et Destination finale 5 de Steven Quale en 2011.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un an après le crash du vol 180, Kimberly Corman, étudiante, se rend en Floride pour les vacances de printemps avec ses amis Shaina McKlank, Dano Estevez et Frankie Whitman. Sur la route, Kimberly a la vision d'un terrible carambolage tuant de nombreuses personnes à cause de rondins de bois  se détachant d'un convoi accidentellement. Elle bloque la circulation en interposant sa voiture devant l'entrée de l'autoroute, empêchant ainsi d'y entrer l'agent de police Thomas Burke, le pornographe cocaïnomane Rory Peters, le professeur Eugène Dix, la femme d'affaires BCBG Kat Jennings, le gagnant de loto Evan Lewis, la veuve Nora Carpenter et son fils de 15 ans Tim, et la femme enceinte Isabella Hudson. Mais sa tentative n'empêche pas le pire, et l'accident qu'elle redoutait a lieu. Juste après, un camion emboutit son véhicule, tuant ainsi ses amis qui sont restés à l'intérieur. Kimberly est sauvée in extremis de la collision par l'officier Burke.
 Les survivants sont amenés au poste de police, où on leur apprend la malédiction du vol 180. Plus tard, une réaction en chaîne provoque un incendie dans l'appartement d'Evan ; il y échappe de justesse par l'échelle de secours, cependant celle-ci se détache et empale son œil. L'officier Burke fait des recherches sur les survivants du vol 180 et découvre qu'Alex Browning a été tué par la chute d'une brique. Kimberly rend visite à Claire Rivers, la dernière survivante du vol 180, qui est maintenant détenue volontairement dans un service psychiatrique. Claire refuse de l'aider, cependant elle finit par se rendre compte que les survivants meurent dans le sens inverse de l'ordre dans lequel ils auraient dû mourir dans le carambolage,  elle avertit alors Kimberly de faire attention aux signes avant-coureurs de la Mort. De retour chez elle, Kimberly a la vision de pigeons qui l'attaquent, elle avertit  l'officier Burke et tous deux se précipitent pour sauver Nora et Tim, mais ils arrivent trop tard et Tim est écrasé par une vitre en sortant de chez le dentiste. Claire change d'avis et présente Kimberly et l'officier Burke à l'entrepreneur de pompes funèbres William Bludworth, qui leur dit que seule une "nouvelle vie" peut vaincre la Mort. Ils croient que si Isabella (la femme enceinte) a son bébé, cela ruinera le plan de la Mort et ils seront tous sauvés.
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Final Destination 2
 Titre français : Destination finale 2
@@ -564,29 +580,29 @@
 Coproduction : Justis Greene
 Production déléguée : Toby Emmerich, Richard Brener, Matt Moore et Jeffrey Reddick
 Production associée : Sheila Hanahan
-Sociétés de production[1] : Zide/Perry Productions, avec la participation de New Line Cinema
-Sociétés de distribution[1] :
+Sociétés de production : Zide/Perry Productions, avec la participation de New Line Cinema
+Sociétés de distribution :
 États-Unis : New Line Cinema
 Canada / Québec : Alliance Atlantis Communications / Alliance Atlantis VivaFilm
 Suisse : Fox-Warner
 Belgique : RCV Film Distribution
 France : Metropolitan Filmexport
-Budget : 26 millions de $[2],[3]
+Budget : 26 millions de $,
 Pays d'origine :  États-Unis,  Canada
 Langue originale : anglais
-Format[4] : couleur (DeLuxe) - 35 mm - 1,85:1 (Panavision) - son DTS | Dolby Digital | SDDS
+Format : couleur (DeLuxe) - 35 mm - 1,85:1 (Panavision) - son DTS | Dolby Digital | SDDS
 Genres : épouvante-horreur, thriller
 Durée : 90 minutes
-Dates de sortie[5] :
+Dates de sortie :
 États-Unis, Canada : 31 janvier 2003
 Belgique : 28 mars 2003 (Festival international du film fantastique de Bruxelles) ; 2 avril 2003 (sortie nationale)
 Suisse romande : 2 avril 2003
 France : 9 avril 2003
-Classification[6] :
+Classification :
  États-Unis : Interdit aux moins de 17 ans (R – Restricted)[Note 1].
  Canada : Les personnes de moins de 18 ans doivent être accompagnées d'un adulte (18A - 18 Accompaniment)[Note 2].
  Québec : 13 ans et plus (13+ / 13 years and over).
- France : Interdit aux moins de 12 ans (visa d'exploitation no 107734 délivré le 14 décembre 2000)[7],[8].</t>
+ France : Interdit aux moins de 12 ans (visa d'exploitation no 107734 délivré le 14 décembre 2000),.</t>
         </is>
       </c>
     </row>
@@ -614,7 +630,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>A.J. Cook (VF : Sophie Riffont et VQ : Charlotte Bernard) : Kimberly Corman
 Michael Landes (VF : Thierry Ragueneau et VQ : Thiéry Dubé) : Agent de police Thomas Burke
@@ -669,8 +687,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Casting
-Bien que la quasi-totalité des personnages de Destination finale trouve la mort dans le premier film, l'héroïne Claire Rivers est de retour dans la suite, étant l'unique survivante de l'aventure. L'actrice Ali Larter l'incarne une fois de plus, cette fois en blonde pour coïncider avec la fin du premier. Le croque-mort William Bludworth, interprété par Tony Todd, est également de retour.
+          <t>Casting</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que la quasi-totalité des personnages de Destination finale trouve la mort dans le premier film, l'héroïne Claire Rivers est de retour dans la suite, étant l'unique survivante de l'aventure. L'actrice Ali Larter l'incarne une fois de plus, cette fois en blonde pour coïncider avec la fin du premier. Le croque-mort William Bludworth, interprété par Tony Todd, est également de retour.
 Alex Browning, héros de Destination finale, n'est pas présent dans Destination finale 2 bien qu'il ne trouve pas la mort dans le premier. Ceci est dû au refus de l'acteur Devon Sawa de participer à la suite en raison d'une dispute avec la production. Il est dit dans le second opus qu'Alex est mort entre les deux films, à la suite de la chute d'une brique.
 Jonathan Cherry, interprète de Rory Peters, devait initialement incarner Evan Lewis.
 Mary Elizabeth Winstead devait initialement faire partie du casting de Destination finale 2. Finalement, elle est l'héroïne de Destination finale 3. En effet, le personnage de Wendy Christensen est la cousine de Kimberly Corman.
@@ -704,12 +727,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Accueil critique
-Le film a obtenu globalement des critiques très mitigées. Il recueille 50 % de critiques positives, avec un score moyen de 5.0/10 et sur la base de 111 critiques collectées, sur le site Rotten Tomatoes[9]. Sur Metacritic, il obtient un score de 38/100, sur la base de 25 critiques collectées[10].
-Box-office
-Recettes mondiales : 90 426 405 $[11]
-Recettes USA : 46 961 214 $[11]
-Nombre d'entrées en France : 887 318[12]</t>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a obtenu globalement des critiques très mitigées. Il recueille 50 % de critiques positives, avec un score moyen de 5.0/10 et sur la base de 111 critiques collectées, sur le site Rotten Tomatoes. Sur Metacritic, il obtient un score de 38/100, sur la base de 25 critiques collectées.
+</t>
         </is>
       </c>
     </row>
@@ -734,45 +759,122 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Recettes mondiales : 90 426 405 $
+Recettes USA : 46 961 214 $
+Nombre d'entrées en France : 887 318</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Destination_finale_2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Destination_finale_2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Entre 2003 et 2004, Destination finale 2 a été sélectionné 4 fois dans diverses catégories et n'a remporté aucune récompense[13].
-Nominations
-MTV Movie Awards 2003 : Meilleure scène d'action (Collision sur la route 23).
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 2003 et 2004, Destination finale 2 a été sélectionné 4 fois dans diverses catégories et n'a remporté aucune récompense.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Destination_finale_2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Destination_finale_2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>MTV Movie Awards 2003 : Meilleure scène d'action (Collision sur la route 23).
 Prix de la bande-annonce d'or 2003 : Nommé au Prix de la Toison d'Or pour Aspect Ratio.
 Prix du jeune public 2003 : Meilleur film d'horreur / thriller.
 Académie des films de science-fiction, fantastique et d'horreur - Saturn Awards 2004 : Meilleur film d'horreur.</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Destination_finale_2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Destination_finale_2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Destination_finale_2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Destination_finale_2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Liens avec le précédent film</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>La plupart des survivants de l'accident de l'A23 sont indirectement liés aux survivants du vol 180 :
 Kat Jennings était passagère du bus qui a renversé Terry Chaney.
